--- a/test.xlsx
+++ b/test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BA8C8241-C384-4368-903A-0795F209DA59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0498992E-60EF-42FA-846D-D929C56C8CAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票账户" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="ETF" sheetId="3" r:id="rId3"/>
     <sheet name="场外收益互换" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>股票代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总资产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>占用保证金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +90,60 @@
   </si>
   <si>
     <t>场外负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">收盘价 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银江股份</t>
+  </si>
+  <si>
+    <t>300041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回天新材</t>
+  </si>
+  <si>
+    <t>600072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中船科技</t>
+  </si>
+  <si>
+    <t>600104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上汽集团</t>
+  </si>
+  <si>
+    <t>000650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁和药业</t>
+  </si>
+  <si>
+    <t>000667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美好置业</t>
+  </si>
+  <si>
+    <t>单位成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,72 +469,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>100000</v>
       </c>
-      <c r="C2">
-        <f>B5*C5+B6*C6</f>
-        <v>4000000</v>
-      </c>
-      <c r="D2">
-        <f>B2+C2</f>
-        <v>4100000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>100000</v>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>600001</v>
-      </c>
-      <c r="B6">
-        <v>200000</v>
+        <v>32600</v>
+      </c>
+      <c r="D5">
+        <v>5.98</v>
+      </c>
+      <c r="E5">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>15.1</v>
+        <v>16600</v>
+      </c>
+      <c r="D6">
+        <v>6.7</v>
+      </c>
+      <c r="E6">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>4100</v>
+      </c>
+      <c r="D7">
+        <v>6.87</v>
+      </c>
+      <c r="E7">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>2100</v>
+      </c>
+      <c r="D8">
+        <v>28.01</v>
+      </c>
+      <c r="E8">
+        <v>27.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>10400</v>
+      </c>
+      <c r="D9">
+        <v>6.89</v>
+      </c>
+      <c r="E9">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>55800</v>
+      </c>
+      <c r="D10">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E10">
+        <v>2.2200000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -498,30 +620,30 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <f>(E5*B5*200+E6*B6*300)*0.33</f>
@@ -535,26 +657,26 @@
         <v>1467471.6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -569,9 +691,9 @@
         <v>5198.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -589,6 +711,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -600,27 +723,27 @@
       <selection activeCell="C31" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>15500</v>
@@ -634,7 +757,7 @@
         <v>1135500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -642,10 +765,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>510500</v>
       </c>
@@ -666,29 +789,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DC2F6C-1BA8-4BC2-B730-3898AE7EBE8F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>15500</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0498992E-60EF-42FA-846D-D929C56C8CAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D790DE1-8A4E-45D1-B5EB-4B94D1683ADE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票账户" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>股票代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,14 +94,6 @@
   </si>
   <si>
     <t>股票名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">收盘价 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -501,18 +493,18 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>300020</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
       <c r="C5">
         <v>32600</v>
@@ -526,10 +518,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>16600</v>
@@ -543,10 +535,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>4100</v>
@@ -560,10 +552,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>2100</v>
@@ -577,10 +569,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>10400</v>
@@ -594,10 +586,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>55800</v>
@@ -619,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A3E1A9-3519-46DC-B393-F10C574AB6C2}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
